--- a/Data_frame/balancos_definitivos/PLPL3.xlsx
+++ b/Data_frame/balancos_definitivos/PLPL3.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P80"/>
+  <dimension ref="A1:S80"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -514,6 +514,21 @@
           <t>30/09/2023</t>
         </is>
       </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>31/12/2023</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>31/03/2024</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>30/06/2024</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -566,6 +581,15 @@
       <c r="P2" t="n">
         <v>1983031.04</v>
       </c>
+      <c r="Q2" t="n">
+        <v>2039019.008</v>
+      </c>
+      <c r="R2" t="n">
+        <v>2029517.056</v>
+      </c>
+      <c r="S2" t="n">
+        <v>2064050.048</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -618,6 +642,15 @@
       <c r="P3" t="n">
         <v>1699006.976</v>
       </c>
+      <c r="Q3" t="n">
+        <v>1731714.048</v>
+      </c>
+      <c r="R3" t="n">
+        <v>1769204.992</v>
+      </c>
+      <c r="S3" t="n">
+        <v>1736721.024</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -670,6 +703,15 @@
       <c r="P4" t="n">
         <v>201091.008</v>
       </c>
+      <c r="Q4" t="n">
+        <v>312182.016</v>
+      </c>
+      <c r="R4" t="n">
+        <v>213588</v>
+      </c>
+      <c r="S4" t="n">
+        <v>231115.008</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -722,6 +764,15 @@
       <c r="P5" t="n">
         <v>145072</v>
       </c>
+      <c r="Q5" t="n">
+        <v>113228</v>
+      </c>
+      <c r="R5" t="n">
+        <v>69206</v>
+      </c>
+      <c r="S5" t="n">
+        <v>146954</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -774,6 +825,15 @@
       <c r="P6" t="n">
         <v>407503.008</v>
       </c>
+      <c r="Q6" t="n">
+        <v>418484.992</v>
+      </c>
+      <c r="R6" t="n">
+        <v>519543.008</v>
+      </c>
+      <c r="S6" t="n">
+        <v>526096</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -826,6 +886,15 @@
       <c r="P7" t="n">
         <v>0</v>
       </c>
+      <c r="Q7" t="n">
+        <v>0</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -878,6 +947,15 @@
       <c r="P8" t="n">
         <v>0</v>
       </c>
+      <c r="Q8" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -930,6 +1008,15 @@
       <c r="P9" t="n">
         <v>9888</v>
       </c>
+      <c r="Q9" t="n">
+        <v>10377</v>
+      </c>
+      <c r="R9" t="n">
+        <v>10986</v>
+      </c>
+      <c r="S9" t="n">
+        <v>11637</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -982,6 +1069,15 @@
       <c r="P10" t="n">
         <v>0</v>
       </c>
+      <c r="Q10" t="n">
+        <v>0</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1034,6 +1130,15 @@
       <c r="P11" t="n">
         <v>935452.992</v>
       </c>
+      <c r="Q11" t="n">
+        <v>877441.9840000001</v>
+      </c>
+      <c r="R11" t="n">
+        <v>955881.9840000001</v>
+      </c>
+      <c r="S11" t="n">
+        <v>820918.976</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1086,6 +1191,15 @@
       <c r="P12" t="n">
         <v>263136</v>
       </c>
+      <c r="Q12" t="n">
+        <v>283430.016</v>
+      </c>
+      <c r="R12" t="n">
+        <v>229262</v>
+      </c>
+      <c r="S12" t="n">
+        <v>287326.016</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1138,6 +1252,15 @@
       <c r="P13" t="n">
         <v>0</v>
       </c>
+      <c r="Q13" t="n">
+        <v>0</v>
+      </c>
+      <c r="R13" t="n">
+        <v>0</v>
+      </c>
+      <c r="S13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1190,6 +1313,15 @@
       <c r="P14" t="n">
         <v>0</v>
       </c>
+      <c r="Q14" t="n">
+        <v>0</v>
+      </c>
+      <c r="R14" t="n">
+        <v>0</v>
+      </c>
+      <c r="S14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1242,6 +1374,15 @@
       <c r="P15" t="n">
         <v>552</v>
       </c>
+      <c r="Q15" t="n">
+        <v>626</v>
+      </c>
+      <c r="R15" t="n">
+        <v>626</v>
+      </c>
+      <c r="S15" t="n">
+        <v>644</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1294,6 +1435,15 @@
       <c r="P16" t="n">
         <v>150656.992</v>
       </c>
+      <c r="Q16" t="n">
+        <v>151891.008</v>
+      </c>
+      <c r="R16" t="n">
+        <v>158567.008</v>
+      </c>
+      <c r="S16" t="n">
+        <v>218600.992</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1346,6 +1496,15 @@
       <c r="P17" t="n">
         <v>0</v>
       </c>
+      <c r="Q17" t="n">
+        <v>0</v>
+      </c>
+      <c r="R17" t="n">
+        <v>0</v>
+      </c>
+      <c r="S17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1398,6 +1557,15 @@
       <c r="P18" t="n">
         <v>0</v>
       </c>
+      <c r="Q18" t="n">
+        <v>0</v>
+      </c>
+      <c r="R18" t="n">
+        <v>0</v>
+      </c>
+      <c r="S18" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1450,6 +1618,15 @@
       <c r="P19" t="n">
         <v>0</v>
       </c>
+      <c r="Q19" t="n">
+        <v>0</v>
+      </c>
+      <c r="R19" t="n">
+        <v>0</v>
+      </c>
+      <c r="S19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1502,6 +1679,15 @@
       <c r="P20" t="n">
         <v>0</v>
       </c>
+      <c r="Q20" t="n">
+        <v>0</v>
+      </c>
+      <c r="R20" t="n">
+        <v>0</v>
+      </c>
+      <c r="S20" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1554,6 +1740,15 @@
       <c r="P21" t="n">
         <v>13500</v>
       </c>
+      <c r="Q21" t="n">
+        <v>0</v>
+      </c>
+      <c r="R21" t="n">
+        <v>0</v>
+      </c>
+      <c r="S21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1606,6 +1801,15 @@
       <c r="P22" t="n">
         <v>1193</v>
       </c>
+      <c r="Q22" t="n">
+        <v>1061</v>
+      </c>
+      <c r="R22" t="n">
+        <v>1061</v>
+      </c>
+      <c r="S22" t="n">
+        <v>813</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1658,6 +1862,15 @@
       <c r="P23" t="n">
         <v>12310</v>
       </c>
+      <c r="Q23" t="n">
+        <v>13399</v>
+      </c>
+      <c r="R23" t="n">
+        <v>19002</v>
+      </c>
+      <c r="S23" t="n">
+        <v>26254</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1710,6 +1923,15 @@
       <c r="P24" t="n">
         <v>7385</v>
       </c>
+      <c r="Q24" t="n">
+        <v>9415</v>
+      </c>
+      <c r="R24" t="n">
+        <v>10987</v>
+      </c>
+      <c r="S24" t="n">
+        <v>12936</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1762,6 +1984,15 @@
       <c r="P25" t="n">
         <v>0</v>
       </c>
+      <c r="Q25" t="n">
+        <v>0</v>
+      </c>
+      <c r="R25" t="n">
+        <v>0</v>
+      </c>
+      <c r="S25" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1814,6 +2045,15 @@
       <c r="P26" t="n">
         <v>1983031.04</v>
       </c>
+      <c r="Q26" t="n">
+        <v>2039019.008</v>
+      </c>
+      <c r="R26" t="n">
+        <v>2029517.056</v>
+      </c>
+      <c r="S26" t="n">
+        <v>2064050.048</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1866,6 +2106,15 @@
       <c r="P27" t="n">
         <v>573427.968</v>
       </c>
+      <c r="Q27" t="n">
+        <v>657486.0159999999</v>
+      </c>
+      <c r="R27" t="n">
+        <v>622918.0159999999</v>
+      </c>
+      <c r="S27" t="n">
+        <v>551192</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1918,6 +2167,15 @@
       <c r="P28" t="n">
         <v>28415</v>
       </c>
+      <c r="Q28" t="n">
+        <v>29071</v>
+      </c>
+      <c r="R28" t="n">
+        <v>31469</v>
+      </c>
+      <c r="S28" t="n">
+        <v>31495</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1970,6 +2228,15 @@
       <c r="P29" t="n">
         <v>240202</v>
       </c>
+      <c r="Q29" t="n">
+        <v>246712.992</v>
+      </c>
+      <c r="R29" t="n">
+        <v>249534</v>
+      </c>
+      <c r="S29" t="n">
+        <v>208263.008</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -2022,6 +2289,15 @@
       <c r="P30" t="n">
         <v>32539</v>
       </c>
+      <c r="Q30" t="n">
+        <v>36202</v>
+      </c>
+      <c r="R30" t="n">
+        <v>24198</v>
+      </c>
+      <c r="S30" t="n">
+        <v>29038</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -2074,6 +2350,15 @@
       <c r="P31" t="n">
         <v>151260.992</v>
       </c>
+      <c r="Q31" t="n">
+        <v>134708</v>
+      </c>
+      <c r="R31" t="n">
+        <v>125444</v>
+      </c>
+      <c r="S31" t="n">
+        <v>103365</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -2126,6 +2411,15 @@
       <c r="P32" t="n">
         <v>5939</v>
       </c>
+      <c r="Q32" t="n">
+        <v>8250</v>
+      </c>
+      <c r="R32" t="n">
+        <v>8217</v>
+      </c>
+      <c r="S32" t="n">
+        <v>8217</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -2178,6 +2472,15 @@
       <c r="P33" t="n">
         <v>0</v>
       </c>
+      <c r="Q33" t="n">
+        <v>63782</v>
+      </c>
+      <c r="R33" t="n">
+        <v>0</v>
+      </c>
+      <c r="S33" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -2230,6 +2533,15 @@
       <c r="P34" t="n">
         <v>100150</v>
       </c>
+      <c r="Q34" t="n">
+        <v>106794</v>
+      </c>
+      <c r="R34" t="n">
+        <v>144670</v>
+      </c>
+      <c r="S34" t="n">
+        <v>131348</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -2282,6 +2594,15 @@
       <c r="P35" t="n">
         <v>14922</v>
       </c>
+      <c r="Q35" t="n">
+        <v>31966</v>
+      </c>
+      <c r="R35" t="n">
+        <v>39386</v>
+      </c>
+      <c r="S35" t="n">
+        <v>39466</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -2334,6 +2655,15 @@
       <c r="P36" t="n">
         <v>0</v>
       </c>
+      <c r="Q36" t="n">
+        <v>0</v>
+      </c>
+      <c r="R36" t="n">
+        <v>0</v>
+      </c>
+      <c r="S36" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -2386,6 +2716,15 @@
       <c r="P37" t="n">
         <v>770635.008</v>
       </c>
+      <c r="Q37" t="n">
+        <v>735419.008</v>
+      </c>
+      <c r="R37" t="n">
+        <v>753779.968</v>
+      </c>
+      <c r="S37" t="n">
+        <v>757297.024</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -2438,6 +2777,15 @@
       <c r="P38" t="n">
         <v>313779.008</v>
       </c>
+      <c r="Q38" t="n">
+        <v>252827.008</v>
+      </c>
+      <c r="R38" t="n">
+        <v>244400.992</v>
+      </c>
+      <c r="S38" t="n">
+        <v>274281.984</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -2490,6 +2838,15 @@
       <c r="P39" t="n">
         <v>2211</v>
       </c>
+      <c r="Q39" t="n">
+        <v>2422</v>
+      </c>
+      <c r="R39" t="n">
+        <v>2422</v>
+      </c>
+      <c r="S39" t="n">
+        <v>2422</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -2542,6 +2899,15 @@
       <c r="P40" t="n">
         <v>15428</v>
       </c>
+      <c r="Q40" t="n">
+        <v>16809</v>
+      </c>
+      <c r="R40" t="n">
+        <v>14517</v>
+      </c>
+      <c r="S40" t="n">
+        <v>14817</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -2594,6 +2960,15 @@
       <c r="P41" t="n">
         <v>7436</v>
       </c>
+      <c r="Q41" t="n">
+        <v>7817</v>
+      </c>
+      <c r="R41" t="n">
+        <v>16027</v>
+      </c>
+      <c r="S41" t="n">
+        <v>16027</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -2646,6 +3021,15 @@
       <c r="P42" t="n">
         <v>0</v>
       </c>
+      <c r="Q42" t="n">
+        <v>0</v>
+      </c>
+      <c r="R42" t="n">
+        <v>0</v>
+      </c>
+      <c r="S42" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -2698,6 +3082,15 @@
       <c r="P43" t="n">
         <v>431780.992</v>
       </c>
+      <c r="Q43" t="n">
+        <v>455544</v>
+      </c>
+      <c r="R43" t="n">
+        <v>476412.992</v>
+      </c>
+      <c r="S43" t="n">
+        <v>449748.992</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -2750,6 +3143,15 @@
       <c r="P44" t="n">
         <v>0</v>
       </c>
+      <c r="Q44" t="n">
+        <v>0</v>
+      </c>
+      <c r="R44" t="n">
+        <v>0</v>
+      </c>
+      <c r="S44" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -2802,6 +3204,15 @@
       <c r="P45" t="n">
         <v>0</v>
       </c>
+      <c r="Q45" t="n">
+        <v>0</v>
+      </c>
+      <c r="R45" t="n">
+        <v>0</v>
+      </c>
+      <c r="S45" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -2854,6 +3265,15 @@
       <c r="P46" t="n">
         <v>41647</v>
       </c>
+      <c r="Q46" t="n">
+        <v>28967</v>
+      </c>
+      <c r="R46" t="n">
+        <v>29668</v>
+      </c>
+      <c r="S46" t="n">
+        <v>36278</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -2906,6 +3326,15 @@
       <c r="P47" t="n">
         <v>597321</v>
       </c>
+      <c r="Q47" t="n">
+        <v>617146.9840000001</v>
+      </c>
+      <c r="R47" t="n">
+        <v>623151.008</v>
+      </c>
+      <c r="S47" t="n">
+        <v>719283.024</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -2958,6 +3387,15 @@
       <c r="P48" t="n">
         <v>175228</v>
       </c>
+      <c r="Q48" t="n">
+        <v>175228</v>
+      </c>
+      <c r="R48" t="n">
+        <v>175228</v>
+      </c>
+      <c r="S48" t="n">
+        <v>175228</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -3010,6 +3448,15 @@
       <c r="P49" t="n">
         <v>-26181</v>
       </c>
+      <c r="Q49" t="n">
+        <v>-26181</v>
+      </c>
+      <c r="R49" t="n">
+        <v>-26181</v>
+      </c>
+      <c r="S49" t="n">
+        <v>-26181</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -3062,6 +3509,15 @@
       <c r="P50" t="n">
         <v>0</v>
       </c>
+      <c r="Q50" t="n">
+        <v>0</v>
+      </c>
+      <c r="R50" t="n">
+        <v>0</v>
+      </c>
+      <c r="S50" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -3114,6 +3570,15 @@
       <c r="P51" t="n">
         <v>448273.984</v>
       </c>
+      <c r="Q51" t="n">
+        <v>468100</v>
+      </c>
+      <c r="R51" t="n">
+        <v>474104</v>
+      </c>
+      <c r="S51" t="n">
+        <v>570236.032</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -3166,6 +3631,15 @@
       <c r="P52" t="n">
         <v>0</v>
       </c>
+      <c r="Q52" t="n">
+        <v>0</v>
+      </c>
+      <c r="R52" t="n">
+        <v>0</v>
+      </c>
+      <c r="S52" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -3218,6 +3692,15 @@
       <c r="P53" t="n">
         <v>0</v>
       </c>
+      <c r="Q53" t="n">
+        <v>0</v>
+      </c>
+      <c r="R53" t="n">
+        <v>0</v>
+      </c>
+      <c r="S53" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -3270,6 +3753,15 @@
       <c r="P54" t="n">
         <v>0</v>
       </c>
+      <c r="Q54" t="n">
+        <v>0</v>
+      </c>
+      <c r="R54" t="n">
+        <v>0</v>
+      </c>
+      <c r="S54" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -3322,6 +3814,15 @@
       <c r="P55" t="n">
         <v>0</v>
       </c>
+      <c r="Q55" t="n">
+        <v>0</v>
+      </c>
+      <c r="R55" t="n">
+        <v>0</v>
+      </c>
+      <c r="S55" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -3372,6 +3873,15 @@
         <v>0</v>
       </c>
       <c r="P56" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>0</v>
+      </c>
+      <c r="R56" t="n">
+        <v>0</v>
+      </c>
+      <c r="S56" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3396,6 +3906,9 @@
       <c r="N57" t="inlineStr"/>
       <c r="O57" t="inlineStr"/>
       <c r="P57" t="inlineStr"/>
+      <c r="Q57" t="inlineStr"/>
+      <c r="R57" t="inlineStr"/>
+      <c r="S57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -3418,6 +3931,9 @@
       <c r="N58" t="inlineStr"/>
       <c r="O58" t="inlineStr"/>
       <c r="P58" t="inlineStr"/>
+      <c r="Q58" t="inlineStr"/>
+      <c r="R58" t="inlineStr"/>
+      <c r="S58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -3470,6 +3986,15 @@
       <c r="P59" t="n">
         <v>556729.024</v>
       </c>
+      <c r="Q59" t="n">
+        <v>639620.992</v>
+      </c>
+      <c r="R59" t="n">
+        <v>500528</v>
+      </c>
+      <c r="S59" t="n">
+        <v>697552</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -3522,6 +4047,15 @@
       <c r="P60" t="n">
         <v>-378304</v>
       </c>
+      <c r="Q60" t="n">
+        <v>-429542.944</v>
+      </c>
+      <c r="R60" t="n">
+        <v>-334060</v>
+      </c>
+      <c r="S60" t="n">
+        <v>-467931.008</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -3574,6 +4108,15 @@
       <c r="P61" t="n">
         <v>178424.992</v>
       </c>
+      <c r="Q61" t="n">
+        <v>210077.984</v>
+      </c>
+      <c r="R61" t="n">
+        <v>166468</v>
+      </c>
+      <c r="S61" t="n">
+        <v>229620.992</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -3626,6 +4169,15 @@
       <c r="P62" t="n">
         <v>-58586</v>
       </c>
+      <c r="Q62" t="n">
+        <v>117051</v>
+      </c>
+      <c r="R62" t="n">
+        <v>0</v>
+      </c>
+      <c r="S62" t="n">
+        <v>-60801</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -3678,6 +4230,15 @@
       <c r="P63" t="n">
         <v>-29208</v>
       </c>
+      <c r="Q63" t="n">
+        <v>-33177</v>
+      </c>
+      <c r="R63" t="n">
+        <v>-36114</v>
+      </c>
+      <c r="S63" t="n">
+        <v>-38345</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -3730,6 +4291,15 @@
       <c r="P64" t="n">
         <v>0</v>
       </c>
+      <c r="Q64" t="n">
+        <v>0</v>
+      </c>
+      <c r="R64" t="n">
+        <v>0</v>
+      </c>
+      <c r="S64" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -3782,6 +4352,15 @@
       <c r="P65" t="n">
         <v>-806</v>
       </c>
+      <c r="Q65" t="n">
+        <v>20829</v>
+      </c>
+      <c r="R65" t="n">
+        <v>-18373</v>
+      </c>
+      <c r="S65" t="n">
+        <v>-11463</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -3834,6 +4413,15 @@
       <c r="P66" t="n">
         <v>0</v>
       </c>
+      <c r="Q66" t="n">
+        <v>-214816</v>
+      </c>
+      <c r="R66" t="n">
+        <v>-54754</v>
+      </c>
+      <c r="S66" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -3886,6 +4474,15 @@
       <c r="P67" t="n">
         <v>-146</v>
       </c>
+      <c r="Q67" t="n">
+        <v>-132</v>
+      </c>
+      <c r="R67" t="n">
+        <v>0</v>
+      </c>
+      <c r="S67" t="n">
+        <v>-248</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -3938,6 +4535,15 @@
       <c r="P68" t="n">
         <v>724</v>
       </c>
+      <c r="Q68" t="n">
+        <v>-289</v>
+      </c>
+      <c r="R68" t="n">
+        <v>3823</v>
+      </c>
+      <c r="S68" t="n">
+        <v>-465</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -3990,6 +4596,15 @@
       <c r="P69" t="n">
         <v>10350</v>
       </c>
+      <c r="Q69" t="n">
+        <v>8690</v>
+      </c>
+      <c r="R69" t="n">
+        <v>10577</v>
+      </c>
+      <c r="S69" t="n">
+        <v>7077</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -4041,6 +4656,15 @@
       </c>
       <c r="P70" t="n">
         <v>-9626</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>-8979</v>
+      </c>
+      <c r="R70" t="n">
+        <v>-6754</v>
+      </c>
+      <c r="S70" t="n">
+        <v>-7542</v>
       </c>
     </row>
     <row r="71">
@@ -4064,6 +4688,9 @@
       <c r="N71" t="inlineStr"/>
       <c r="O71" t="inlineStr"/>
       <c r="P71" t="inlineStr"/>
+      <c r="Q71" t="inlineStr"/>
+      <c r="R71" t="inlineStr"/>
+      <c r="S71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -4086,6 +4713,9 @@
       <c r="N72" t="inlineStr"/>
       <c r="O72" t="inlineStr"/>
       <c r="P72" t="inlineStr"/>
+      <c r="Q72" t="inlineStr"/>
+      <c r="R72" t="inlineStr"/>
+      <c r="S72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -4108,6 +4738,9 @@
       <c r="N73" t="inlineStr"/>
       <c r="O73" t="inlineStr"/>
       <c r="P73" t="inlineStr"/>
+      <c r="Q73" t="inlineStr"/>
+      <c r="R73" t="inlineStr"/>
+      <c r="S73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -4160,6 +4793,15 @@
       <c r="P74" t="n">
         <v>90403</v>
       </c>
+      <c r="Q74" t="n">
+        <v>99543.984</v>
+      </c>
+      <c r="R74" t="n">
+        <v>61050</v>
+      </c>
+      <c r="S74" t="n">
+        <v>118299</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -4212,6 +4854,15 @@
       <c r="P75" t="n">
         <v>-11966</v>
       </c>
+      <c r="Q75" t="n">
+        <v>-12888</v>
+      </c>
+      <c r="R75" t="n">
+        <v>-10669</v>
+      </c>
+      <c r="S75" t="n">
+        <v>-13393</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -4263,6 +4914,15 @@
       </c>
       <c r="P76" t="n">
         <v>-739</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>-941</v>
+      </c>
+      <c r="R76" t="n">
+        <v>-702</v>
+      </c>
+      <c r="S76" t="n">
+        <v>-1002</v>
       </c>
     </row>
     <row r="77">
@@ -4286,6 +4946,9 @@
       <c r="N77" t="inlineStr"/>
       <c r="O77" t="inlineStr"/>
       <c r="P77" t="inlineStr"/>
+      <c r="Q77" t="inlineStr"/>
+      <c r="R77" t="inlineStr"/>
+      <c r="S77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -4308,6 +4971,9 @@
       <c r="N78" t="inlineStr"/>
       <c r="O78" t="inlineStr"/>
       <c r="P78" t="inlineStr"/>
+      <c r="Q78" t="inlineStr"/>
+      <c r="R78" t="inlineStr"/>
+      <c r="S78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -4360,6 +5026,15 @@
       <c r="P79" t="n">
         <v>-1966</v>
       </c>
+      <c r="Q79" t="n">
+        <v>-2633</v>
+      </c>
+      <c r="R79" t="n">
+        <v>-8182</v>
+      </c>
+      <c r="S79" t="n">
+        <v>-8611</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -4411,6 +5086,15 @@
       </c>
       <c r="P80" t="n">
         <v>75732</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>83081.984</v>
+      </c>
+      <c r="R80" t="n">
+        <v>41497</v>
+      </c>
+      <c r="S80" t="n">
+        <v>95293</v>
       </c>
     </row>
   </sheetData>
